--- a/data/trans_dic/P1410-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1410-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.03258218140002334</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.08256483143288426</v>
+        <v>0.08256483143288428</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.06967563691770011</v>
@@ -697,7 +697,7 @@
         <v>0.03806778391662461</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.07152314570063299</v>
+        <v>0.07152314570063301</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05251744945563091</v>
+        <v>0.05154262577085105</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02456430877475409</v>
+        <v>0.02508977356683868</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0233915891199839</v>
+        <v>0.02345389869074525</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06130925488981526</v>
+        <v>0.06153945966289249</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05542700858898068</v>
+        <v>0.05538909507790244</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04307470307589516</v>
+        <v>0.0435293614093991</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03269105338125101</v>
+        <v>0.03180028154401049</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04901986669291646</v>
+        <v>0.04889468755914111</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05697296584242929</v>
+        <v>0.05883193442457278</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0378593160622604</v>
+        <v>0.03769198803899674</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03069790138287806</v>
+        <v>0.03052163134494723</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05771020043162595</v>
+        <v>0.05817290384396916</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0912366333942565</v>
+        <v>0.09365558570260436</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04666086424917263</v>
+        <v>0.04789055997363478</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04359200192017917</v>
+        <v>0.04465576189111684</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.109934079791172</v>
+        <v>0.1093306642057317</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08949894287627524</v>
+        <v>0.0872174721361689</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07141692160729825</v>
+        <v>0.07142508716252577</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05649700408506704</v>
+        <v>0.05758990138682714</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0787102597292253</v>
+        <v>0.07883382373996041</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08518730545293685</v>
+        <v>0.08323713637598941</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05497379523032032</v>
+        <v>0.05578313118857916</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04662188942963236</v>
+        <v>0.04626456868853684</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08597529069752188</v>
+        <v>0.08718519586485675</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.03691036179415168</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05914622441841686</v>
+        <v>0.05914622441841687</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.02885836390387578</v>
@@ -821,7 +821,7 @@
         <v>0.05384734501552468</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.047579013819951</v>
+        <v>0.04757901381995099</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.03817961832924529</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03548486166601138</v>
+        <v>0.03592013506289344</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02514956633252102</v>
+        <v>0.02492487389720614</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02560859920179209</v>
+        <v>0.02635604007528218</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04602996071699773</v>
+        <v>0.04659939045864963</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0199278833438254</v>
+        <v>0.02001523962562669</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03111201712377031</v>
+        <v>0.03064953157163031</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04152357607678968</v>
+        <v>0.04089436292207253</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03807858215268879</v>
+        <v>0.03715167781334269</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03057843253319229</v>
+        <v>0.03006181047231688</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03132848805834382</v>
+        <v>0.03180036977389766</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03682685653831567</v>
+        <v>0.03631612458920697</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04542051100002836</v>
+        <v>0.04538726809834617</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06165612938426804</v>
+        <v>0.06195533420812618</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05111045646736669</v>
+        <v>0.05121394432598333</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05082613217561296</v>
+        <v>0.05161641067576744</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0744278789678785</v>
+        <v>0.07372924859445468</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04040035513317663</v>
+        <v>0.04092600729666433</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05448989345295523</v>
+        <v>0.05446200712689716</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07011575946278654</v>
+        <v>0.07262708064641364</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05831533456424823</v>
+        <v>0.05770569697946022</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04665608302811423</v>
+        <v>0.04711399891795856</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04886536355739703</v>
+        <v>0.04912675382703425</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05753140893820712</v>
+        <v>0.05722301498360049</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06193174318477662</v>
+        <v>0.06269925032314355</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.03518421896548785</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.04390026455065749</v>
+        <v>0.0439002645506575</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.02550134403665284</v>
@@ -969,7 +969,7 @@
         <v>0.03916549333304471</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.04192562251368562</v>
+        <v>0.04192562251368561</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02174793033254574</v>
+        <v>0.02298863202829045</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03743760365175261</v>
+        <v>0.03765426581231279</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02989441997720613</v>
+        <v>0.03018797259256841</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03085915449830281</v>
+        <v>0.0307215967886702</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0110581389783363</v>
+        <v>0.01169824258619162</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02485318341037692</v>
+        <v>0.0257295299080016</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02219949229731372</v>
+        <v>0.0219784135307996</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0343817370745541</v>
+        <v>0.03338914073249277</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.019309369529517</v>
+        <v>0.01979350171992749</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03533189331192355</v>
+        <v>0.03472088345994451</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03059291307766788</v>
+        <v>0.03033260132843651</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0355331796099253</v>
+        <v>0.03524499238613798</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04222427219737006</v>
+        <v>0.04391966509029967</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06924616633883085</v>
+        <v>0.06925055615449281</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05809601137101143</v>
+        <v>0.05950025101058476</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05202708091625384</v>
+        <v>0.05126572430293137</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02796510703395049</v>
+        <v>0.02969629586243522</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05152961482961047</v>
+        <v>0.05160338055091587</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05360529410107642</v>
+        <v>0.05022305180258284</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05609203019603028</v>
+        <v>0.05628641347084994</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0323438368967004</v>
+        <v>0.03320568502310806</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05678719295642093</v>
+        <v>0.05558184084830099</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05122232517506169</v>
+        <v>0.05147731211813484</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05134849909321386</v>
+        <v>0.05118436402325592</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.04144982646357225</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.05098095773349663</v>
+        <v>0.05098095773349662</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.03378394362039015</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01484707121495921</v>
+        <v>0.01607393101640393</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01667967565049689</v>
+        <v>0.01696378863402541</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02541567867677495</v>
+        <v>0.02728065177781157</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03850615481330461</v>
+        <v>0.03820992544143673</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01719270261666437</v>
+        <v>0.01798936913013188</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.006232664212272175</v>
+        <v>0.006834782593938578</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02858652503332805</v>
+        <v>0.02680533643980833</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01813713436157583</v>
+        <v>0.01737828255264959</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02002010648133249</v>
+        <v>0.02028474817194378</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01413220117266754</v>
+        <v>0.01395895765362016</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03183082224953956</v>
+        <v>0.03149013250729699</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03171962167410226</v>
+        <v>0.03163524504460299</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04698935875302595</v>
+        <v>0.04461025992544129</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04657052538232907</v>
+        <v>0.04820159871043091</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06148246022417858</v>
+        <v>0.06395010773036031</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0670496192926469</v>
+        <v>0.06848164533962606</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05643482399115041</v>
+        <v>0.05823785087888828</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0366367161524092</v>
+        <v>0.03391885455862935</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06674996485605834</v>
+        <v>0.06824486317029531</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03333301269477726</v>
+        <v>0.0335215530811484</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04447452769779431</v>
+        <v>0.04464473435710104</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03463549907075888</v>
+        <v>0.03491420680608285</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0594595265165773</v>
+        <v>0.05848234517025083</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04904692409252716</v>
+        <v>0.04783863663588672</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.03760690502614823</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.05443293292532869</v>
+        <v>0.0544329329253287</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.03762969266784175</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03684124488373684</v>
+        <v>0.03695172920706359</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03277523870916813</v>
+        <v>0.03196472222323219</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03178524534740267</v>
+        <v>0.03124046872836205</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0476677173411325</v>
+        <v>0.04818286387030958</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03129176772083412</v>
+        <v>0.0319786516424645</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0359369079625286</v>
+        <v>0.03506139348247422</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03741776417234034</v>
+        <v>0.03773458198475245</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03806804117664828</v>
+        <v>0.03819715727979942</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03594195543333321</v>
+        <v>0.0356289603145401</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03606552920470565</v>
+        <v>0.03544537316911576</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03671501484793515</v>
+        <v>0.03630686583711199</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0445353226088839</v>
+        <v>0.04479927147758615</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05077739111815022</v>
+        <v>0.0507558804038846</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04668248404875367</v>
+        <v>0.04520309631567414</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04443477761447309</v>
+        <v>0.04412662205817398</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06179335050468988</v>
+        <v>0.0625271716594251</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04440072507479475</v>
+        <v>0.04451995687944516</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04876999735428744</v>
+        <v>0.04940468765657072</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05252098082471635</v>
+        <v>0.05185797185077531</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04879509534885816</v>
+        <v>0.04956605864081123</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04595492684586287</v>
+        <v>0.04575677318441085</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04587288527647515</v>
+        <v>0.04500910803109604</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04649476948769627</v>
+        <v>0.04658322374414165</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.05354940048979193</v>
+        <v>0.05369353874324158</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>30678</v>
+        <v>30108</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>25644</v>
+        <v>26192</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>26386</v>
+        <v>26456</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>30524</v>
+        <v>30639</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>51122</v>
+        <v>51087</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>48135</v>
+        <v>48643</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>41176</v>
+        <v>40054</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>30505</v>
+        <v>30427</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>85828</v>
+        <v>88629</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>81829</v>
+        <v>81468</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>73293</v>
+        <v>72872</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>64646</v>
+        <v>65164</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>53295</v>
+        <v>54708</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>48711</v>
+        <v>49995</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>49172</v>
+        <v>50372</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>54733</v>
+        <v>54433</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>82548</v>
+        <v>80444</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>79806</v>
+        <v>79815</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>71161</v>
+        <v>72538</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>48982</v>
+        <v>49059</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>128332</v>
+        <v>125395</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>118821</v>
+        <v>120570</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>111312</v>
+        <v>110459</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>96308</v>
+        <v>97663</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>38249</v>
+        <v>38718</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>24573</v>
+        <v>24353</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>23274</v>
+        <v>23953</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>44132</v>
+        <v>44677</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>21074</v>
+        <v>21167</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>33984</v>
+        <v>33479</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>41792</v>
+        <v>41159</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>42438</v>
+        <v>41405</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>65298</v>
+        <v>64195</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>64831</v>
+        <v>65808</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>70534</v>
+        <v>69556</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>94167</v>
+        <v>94098</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>66459</v>
+        <v>66781</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>49939</v>
+        <v>50040</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>46192</v>
+        <v>46910</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>71358</v>
+        <v>70688</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>42725</v>
+        <v>43281</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>59521</v>
+        <v>59490</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>70570</v>
+        <v>73097</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>64991</v>
+        <v>64312</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>99631</v>
+        <v>100609</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>101122</v>
+        <v>101663</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>110190</v>
+        <v>109599</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>128399</v>
+        <v>129990</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>24392</v>
+        <v>25784</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>33137</v>
+        <v>33328</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>24626</v>
+        <v>24868</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>32293</v>
+        <v>32150</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10991</v>
+        <v>11627</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>21766</v>
+        <v>22534</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>17117</v>
+        <v>16947</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>35997</v>
+        <v>34958</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>40850</v>
+        <v>41874</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>62216</v>
+        <v>61140</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>48790</v>
+        <v>48375</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>74388</v>
+        <v>73784</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>47358</v>
+        <v>49260</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>61291</v>
+        <v>61295</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>47857</v>
+        <v>49014</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>54445</v>
+        <v>53649</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>27796</v>
+        <v>29516</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>45129</v>
+        <v>45194</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>41333</v>
+        <v>38725</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>58728</v>
+        <v>58931</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>68424</v>
+        <v>70248</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>99997</v>
+        <v>97875</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>81690</v>
+        <v>82097</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>107497</v>
+        <v>107153</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6640</v>
+        <v>7188</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8390</v>
+        <v>8533</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>12878</v>
+        <v>13823</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>37579</v>
+        <v>37290</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5865</v>
+        <v>6137</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2822</v>
+        <v>3094</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>13999</v>
+        <v>13127</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>16466</v>
+        <v>15777</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>15783</v>
+        <v>15992</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>13507</v>
+        <v>13341</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>31716</v>
+        <v>31377</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>59753</v>
+        <v>59594</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>21014</v>
+        <v>19950</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>23426</v>
+        <v>24247</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>31153</v>
+        <v>32404</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>65436</v>
+        <v>66833</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>19253</v>
+        <v>19868</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>16587</v>
+        <v>15356</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>32687</v>
+        <v>33419</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>30261</v>
+        <v>30433</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>35062</v>
+        <v>35196</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>33103</v>
+        <v>33370</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>59245</v>
+        <v>58272</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>92394</v>
+        <v>90117</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>119028</v>
+        <v>119385</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>111736</v>
+        <v>108972</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>107030</v>
+        <v>105195</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>165838</v>
+        <v>167630</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>103731</v>
+        <v>106008</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>127157</v>
+        <v>124059</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>131965</v>
+        <v>133082</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>140533</v>
+        <v>141010</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>235269</v>
+        <v>233220</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>250564</v>
+        <v>246256</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>253116</v>
+        <v>250302</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>319348</v>
+        <v>321240</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>164053</v>
+        <v>163984</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>159147</v>
+        <v>154104</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>149624</v>
+        <v>148587</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>214981</v>
+        <v>217534</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>147187</v>
+        <v>147582</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>172564</v>
+        <v>174810</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>185231</v>
+        <v>182892</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>180133</v>
+        <v>182979</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>300812</v>
+        <v>299515</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>318701</v>
+        <v>312700</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>320538</v>
+        <v>321148</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>383984</v>
+        <v>385018</v>
       </c>
     </row>
     <row r="24">
